--- a/buildDatabase/data/ricoveri/Ricovero_Dateset.xlsx
+++ b/buildDatabase/data/ricoveri/Ricovero_Dateset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabra\Desktop\Dataset_sanita_benedetta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabra\Desktop\FaBE-CARE\PROJECT\buildDatabase\data\ricoveri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB82E502-531D-40CD-BF12-DF4910FE1718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B091F078-81A2-45A5-8944-E54ADC9819E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5509C58-7E95-489F-9F27-7E8E22F7564C}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
